--- a/data/outputs/OR_elsevier/31.xlsx
+++ b/data/outputs/OR_elsevier/31.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BS36"/>
+  <dimension ref="A1:BU36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -722,6 +722,16 @@
           <t>eid</t>
         </is>
       </c>
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>views</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr">
+        <is>
+          <t>citations</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -917,6 +927,12 @@
       <c r="BQ2" t="inlineStr"/>
       <c r="BR2" t="inlineStr"/>
       <c r="BS2" t="inlineStr"/>
+      <c r="BT2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1120,6 +1136,12 @@
       <c r="BQ3" t="inlineStr"/>
       <c r="BR3" t="inlineStr"/>
       <c r="BS3" t="inlineStr"/>
+      <c r="BT3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1327,6 +1349,12 @@
       <c r="BQ4" t="inlineStr"/>
       <c r="BR4" t="inlineStr"/>
       <c r="BS4" t="inlineStr"/>
+      <c r="BT4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1530,6 +1558,12 @@
       <c r="BQ5" t="inlineStr"/>
       <c r="BR5" t="inlineStr"/>
       <c r="BS5" t="inlineStr"/>
+      <c r="BT5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1733,6 +1767,12 @@
       <c r="BQ6" t="inlineStr"/>
       <c r="BR6" t="inlineStr"/>
       <c r="BS6" t="inlineStr"/>
+      <c r="BT6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1932,6 +1972,12 @@
       <c r="BQ7" t="inlineStr"/>
       <c r="BR7" t="inlineStr"/>
       <c r="BS7" t="inlineStr"/>
+      <c r="BT7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2135,6 +2181,12 @@
       <c r="BQ8" t="inlineStr"/>
       <c r="BR8" t="inlineStr"/>
       <c r="BS8" t="inlineStr"/>
+      <c r="BT8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2306,6 +2358,12 @@
       <c r="BQ9" t="inlineStr"/>
       <c r="BR9" t="inlineStr"/>
       <c r="BS9" t="inlineStr"/>
+      <c r="BT9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2505,6 +2563,12 @@
       <c r="BQ10" t="inlineStr"/>
       <c r="BR10" t="inlineStr"/>
       <c r="BS10" t="inlineStr"/>
+      <c r="BT10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2700,6 +2764,12 @@
       <c r="BQ11" t="inlineStr"/>
       <c r="BR11" t="inlineStr"/>
       <c r="BS11" t="inlineStr"/>
+      <c r="BT11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2903,6 +2973,12 @@
       <c r="BQ12" t="inlineStr"/>
       <c r="BR12" t="inlineStr"/>
       <c r="BS12" t="inlineStr"/>
+      <c r="BT12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3110,6 +3186,12 @@
       <c r="BQ13" t="inlineStr"/>
       <c r="BR13" t="inlineStr"/>
       <c r="BS13" t="inlineStr"/>
+      <c r="BT13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3305,6 +3387,12 @@
       <c r="BQ14" t="inlineStr"/>
       <c r="BR14" t="inlineStr"/>
       <c r="BS14" t="inlineStr"/>
+      <c r="BT14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3500,6 +3588,12 @@
       <c r="BQ15" t="inlineStr"/>
       <c r="BR15" t="inlineStr"/>
       <c r="BS15" t="inlineStr"/>
+      <c r="BT15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3695,6 +3789,12 @@
       <c r="BQ16" t="inlineStr"/>
       <c r="BR16" t="inlineStr"/>
       <c r="BS16" t="inlineStr"/>
+      <c r="BT16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -3874,6 +3974,12 @@
       <c r="BQ17" t="inlineStr"/>
       <c r="BR17" t="inlineStr"/>
       <c r="BS17" t="inlineStr"/>
+      <c r="BT17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4053,6 +4159,12 @@
       <c r="BQ18" t="inlineStr"/>
       <c r="BR18" t="inlineStr"/>
       <c r="BS18" t="inlineStr"/>
+      <c r="BT18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4232,6 +4344,12 @@
       <c r="BQ19" t="inlineStr"/>
       <c r="BR19" t="inlineStr"/>
       <c r="BS19" t="inlineStr"/>
+      <c r="BT19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4411,6 +4529,12 @@
       <c r="BQ20" t="inlineStr"/>
       <c r="BR20" t="inlineStr"/>
       <c r="BS20" t="inlineStr"/>
+      <c r="BT20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -4594,6 +4718,12 @@
       <c r="BQ21" t="inlineStr"/>
       <c r="BR21" t="inlineStr"/>
       <c r="BS21" t="inlineStr"/>
+      <c r="BT21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -4781,6 +4911,12 @@
       <c r="BQ22" t="inlineStr"/>
       <c r="BR22" t="inlineStr"/>
       <c r="BS22" t="inlineStr"/>
+      <c r="BT22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -4960,6 +5096,12 @@
       <c r="BQ23" t="inlineStr"/>
       <c r="BR23" t="inlineStr"/>
       <c r="BS23" t="inlineStr"/>
+      <c r="BT23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -5139,6 +5281,12 @@
       <c r="BQ24" t="inlineStr"/>
       <c r="BR24" t="inlineStr"/>
       <c r="BS24" t="inlineStr"/>
+      <c r="BT24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -5346,6 +5494,12 @@
       <c r="BQ25" t="inlineStr"/>
       <c r="BR25" t="inlineStr"/>
       <c r="BS25" t="inlineStr"/>
+      <c r="BT25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -5549,6 +5703,12 @@
       <c r="BQ26" t="inlineStr"/>
       <c r="BR26" t="inlineStr"/>
       <c r="BS26" t="inlineStr"/>
+      <c r="BT26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -5752,6 +5912,12 @@
       <c r="BQ27" t="inlineStr"/>
       <c r="BR27" t="inlineStr"/>
       <c r="BS27" t="inlineStr"/>
+      <c r="BT27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -5947,6 +6113,12 @@
       <c r="BQ28" t="inlineStr"/>
       <c r="BR28" t="inlineStr"/>
       <c r="BS28" t="inlineStr"/>
+      <c r="BT28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -6158,6 +6330,12 @@
       <c r="BQ29" t="inlineStr"/>
       <c r="BR29" t="inlineStr"/>
       <c r="BS29" t="inlineStr"/>
+      <c r="BT29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -6337,6 +6515,12 @@
       <c r="BQ30" t="inlineStr"/>
       <c r="BR30" t="inlineStr"/>
       <c r="BS30" t="inlineStr"/>
+      <c r="BT30" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU30" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -6540,6 +6724,12 @@
       <c r="BQ31" t="inlineStr"/>
       <c r="BR31" t="inlineStr"/>
       <c r="BS31" t="inlineStr"/>
+      <c r="BT31" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU31" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -6743,6 +6933,12 @@
       <c r="BQ32" t="inlineStr"/>
       <c r="BR32" t="inlineStr"/>
       <c r="BS32" t="inlineStr"/>
+      <c r="BT32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -6946,6 +7142,12 @@
       <c r="BQ33" t="inlineStr"/>
       <c r="BR33" t="inlineStr"/>
       <c r="BS33" t="inlineStr"/>
+      <c r="BT33" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -7145,6 +7347,12 @@
       <c r="BQ34" t="inlineStr"/>
       <c r="BR34" t="inlineStr"/>
       <c r="BS34" t="inlineStr"/>
+      <c r="BT34" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU34" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -7344,6 +7552,12 @@
       <c r="BQ35" t="inlineStr"/>
       <c r="BR35" t="inlineStr"/>
       <c r="BS35" t="inlineStr"/>
+      <c r="BT35" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU35" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -7547,6 +7761,12 @@
       <c r="BQ36" t="inlineStr"/>
       <c r="BR36" t="inlineStr"/>
       <c r="BS36" t="inlineStr"/>
+      <c r="BT36" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU36" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
